--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Garantia_Terminos Por Rol_2018-Abríl.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Garantia_Terminos Por Rol_2018-Abríl.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -253,11 +253,11 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Aprobación No Inicio Investigación.</t>
+          <t xml:space="preserve">Acumulación.</t>
         </is>
       </c>
       <c r="C4" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -268,11 +268,11 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Comunica Y/O Aplica Decisión Ppio. De Oportunidad.</t>
+          <t xml:space="preserve">Aprobación No Inicio Investigación.</t>
         </is>
       </c>
       <c r="C5" s="65">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -283,7 +283,7 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Declara Incompetencia.</t>
+          <t xml:space="preserve">Comunica Y/O Aplica Decisión Ppio. De Oportunidad.</t>
         </is>
       </c>
       <c r="C6" s="65">
@@ -298,11 +298,11 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
+          <t xml:space="preserve">Declara Incompetencia.</t>
         </is>
       </c>
       <c r="C7" s="65">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -313,11 +313,26 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
+          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
+        </is>
+      </c>
+      <c r="C8" s="65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="inlineStr" r="A9">
+        <is>
+          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B9">
+        <is>
           <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
-      <c r="C8" s="65">
-        <v>3</v>
+      <c r="C9" s="65">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
